--- a/Example.xlsx
+++ b/Example.xlsx
@@ -19,9 +19,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Example spread sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addind new contents</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -390,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -403,8 +407,12 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
